--- a/InterfaceAuto/server/Risk_assess/Risk_assess_backstage.xlsx
+++ b/InterfaceAuto/server/Risk_assess/Risk_assess_backstage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18615" windowHeight="6660"/>
+    <workbookView windowWidth="27165" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="forward" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>CaseNum</t>
   </si>
@@ -38,82 +38,201 @@
     <t>case1</t>
   </si>
   <si>
-    <t>similarCase</t>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>湖南_原始</t>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
+qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
+pId=19</t>
+  </si>
+  <si>
+    <t>all[key]code,data,msg
+code[=]int(200)
+data[key]action&amp;cache&amp;cases&amp;law&amp;map
+data.cases[dict_list,key]content&amp;id&amp;title
+data.law[dict_list,key]content&amp;id&amp;tag&amp;title
+data.law.title[dict_list_dict,mode]第(.*?)条</t>
+  </si>
+  <si>
+    <t>case2</t>
   </si>
   <si>
     <t>湖南</t>
   </si>
   <si>
-    <t>qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
+    <t>id=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
 pId=19</t>
   </si>
   <si>
-    <t>case2</t>
+    <t>code[=]int(200)</t>
+  </si>
+  <si>
+    <t>case3</t>
+  </si>
+  <si>
+    <t>北京_原始</t>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
+qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
+pId=14</t>
+  </si>
+  <si>
+    <t>case4</t>
   </si>
   <si>
     <t>北京</t>
   </si>
   <si>
-    <t>qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
+    <t>id=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
 pId=14</t>
   </si>
   <si>
-    <t>case3</t>
+    <t>case5</t>
+  </si>
+  <si>
+    <t>上海_原始</t>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
+qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
+pId=9</t>
+  </si>
+  <si>
+    <t>case6</t>
   </si>
   <si>
     <t>上海</t>
   </si>
   <si>
-    <t>qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
+    <t>id=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
 pId=9</t>
   </si>
   <si>
-    <t>case4</t>
+    <t>case7</t>
+  </si>
+  <si>
+    <t>江苏_原始</t>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
+qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
+pId=3</t>
+  </si>
+  <si>
+    <t>case8</t>
   </si>
   <si>
     <t>江苏</t>
   </si>
   <si>
-    <t>qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
+    <t>id=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
 pId=3</t>
   </si>
   <si>
-    <t>case5</t>
+    <t>case9</t>
+  </si>
+  <si>
+    <t>广东_原始</t>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
+qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
+pId=1</t>
+  </si>
+  <si>
+    <t>all[key]code,data,msg
+code[=]int(200)
+data[Ckey]action&amp;cache&amp;cases&amp;law
+data.cases[dict_list,key]content&amp;id&amp;title
+data.law[dict_list,key]content&amp;id&amp;tag&amp;title
+data.law.title[dict_list_dict,mode]第(.*?)条</t>
+  </si>
+  <si>
+    <t>case10</t>
   </si>
   <si>
     <t>广东</t>
   </si>
   <si>
-    <t>qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
+    <t>id=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
 pId=1</t>
   </si>
   <si>
-    <t>case6</t>
+    <t>case11</t>
+  </si>
+  <si>
+    <t>全国_原始</t>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/similarCase
+qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
+pId=50</t>
+  </si>
+  <si>
+    <t>case12</t>
   </si>
   <si>
     <t>全国</t>
   </si>
   <si>
-    <t>qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
+    <t>id=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
 pId=50</t>
   </si>
   <si>
-    <t>case7</t>
+    <t>case13</t>
   </si>
   <si>
     <t>case</t>
   </si>
   <si>
+    <t>原始</t>
+  </si>
+  <si>
+    <t>Url=http://casefindinges6.aegis-info.com/api/case_info/search
+id=c20a74ea86a97efeecc6431295538414</t>
+  </si>
+  <si>
+    <t>all[key]code,data,msg
+code[=]int(200)
+data[key]['caseInfoPlain']
+data.caseInfoPlain[!=]{}
+data.caseInfoPlain[Ckey]case_cause_name&amp;case_number&amp;court_name&amp;decide_time&amp;grade&amp;id&amp;new_paras&amp;title&amp;top_cause_name
+data.caseInfoPlain.new_paras[dict2_list,!=][]</t>
+  </si>
+  <si>
+    <t>case14</t>
+  </si>
+  <si>
     <t>id=c20a74ea86a97efeecc6431295538414</t>
   </si>
   <si>
-    <t>case8</t>
+    <t>Url=&lt;base_url&gt;+/api/forward/case/%id%</t>
+  </si>
+  <si>
+    <t>case15</t>
   </si>
   <si>
     <t>cost</t>
   </si>
   <si>
-    <t>qId=342a184d07e511f15f22ab348bad1bbf</t>
+    <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/cost
+qId=342a184d07e511f15f22ab348bad1bbf</t>
+  </si>
+  <si>
+    <t>all[key]code,data,msg
+code[=]int(200)
+data[key]map
+data.map[dict_list,key]['mediateResult', 'claimMoney', 'mediateTime', 'trialTime', 'legalFare', 'mediateClaim', 'docCount', 'mediateFare', 'resultMoney']</t>
+  </si>
+  <si>
+    <t>case16</t>
+  </si>
+  <si>
+    <t>id=342a184d07e511f15f22ab348bad1bbf</t>
   </si>
 </sst>
 </file>
@@ -121,10 +240,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -135,9 +254,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,7 +361,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,112 +397,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -288,6 +407,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -300,175 +437,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,35 +616,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,26 +659,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,16 +683,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,141 +716,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1055,16 +1178,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
+    <col min="2" max="2" width="39.375" customWidth="1"/>
     <col min="5" max="5" width="47" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="6" max="6" width="75.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36.75" customHeight="1" spans="1:6">
@@ -1077,7 +1201,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1087,117 +1211,286 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="36.75" customHeight="1" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" s="1" customFormat="1" ht="105" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" ht="36.75" customHeight="1" spans="1:5">
-      <c r="A3" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="36.75" customHeight="1" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" ht="36.75" customHeight="1" spans="1:5">
-      <c r="A4" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="36.75" customHeight="1" spans="1:5">
-      <c r="A5" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="36.75" customHeight="1" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" ht="36.75" customHeight="1" spans="1:5">
-      <c r="A6" t="s">
         <v>19</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" ht="36.75" customHeight="1" spans="1:5">
-      <c r="A7" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="36.75" customHeight="1" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" ht="36.75" customHeight="1" spans="1:5">
-      <c r="A8" t="s">
         <v>25</v>
       </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="36.75" customHeight="1" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" ht="36.75" customHeight="1" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="36.75" customHeight="1" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="110" customHeight="1" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" ht="171" customHeight="1" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="71.25" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/InterfaceAuto/server/Risk_assess/Risk_assess_backstage.xlsx
+++ b/InterfaceAuto/server/Risk_assess/Risk_assess_backstage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27165" windowHeight="13065"/>
+    <workbookView windowWidth="20760" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="forward" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>CaseNum</t>
   </si>
@@ -49,14 +49,6 @@
 pId=19</t>
   </si>
   <si>
-    <t>all[key]code,data,msg
-code[=]int(200)
-data[key]action&amp;cache&amp;cases&amp;law&amp;map
-data.cases[dict_list,key]content&amp;id&amp;title
-data.law[dict_list,key]content&amp;id&amp;tag&amp;title
-data.law.title[dict_list_dict,mode]第(.*?)条</t>
-  </si>
-  <si>
     <t>case2</t>
   </si>
   <si>
@@ -65,9 +57,6 @@
   <si>
     <t>id=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
 pId=19</t>
-  </si>
-  <si>
-    <t>code[=]int(200)</t>
   </si>
   <si>
     <t>case3</t>
@@ -144,14 +133,6 @@
 pId=1</t>
   </si>
   <si>
-    <t>all[key]code,data,msg
-code[=]int(200)
-data[Ckey]action&amp;cache&amp;cases&amp;law
-data.cases[dict_list,key]content&amp;id&amp;title
-data.law[dict_list,key]content&amp;id&amp;tag&amp;title
-data.law.title[dict_list_dict,mode]第(.*?)条</t>
-  </si>
-  <si>
     <t>case10</t>
   </si>
   <si>
@@ -196,14 +177,6 @@
 id=c20a74ea86a97efeecc6431295538414</t>
   </si>
   <si>
-    <t>all[key]code,data,msg
-code[=]int(200)
-data[key]['caseInfoPlain']
-data.caseInfoPlain[!=]{}
-data.caseInfoPlain[Ckey]case_cause_name&amp;case_number&amp;court_name&amp;decide_time&amp;grade&amp;id&amp;new_paras&amp;title&amp;top_cause_name
-data.caseInfoPlain.new_paras[dict2_list,!=][]</t>
-  </si>
-  <si>
     <t>case14</t>
   </si>
   <si>
@@ -221,12 +194,6 @@
   <si>
     <t>Url=http://casefindinges6.aegis-info.com/api/prejudge/cost
 qId=342a184d07e511f15f22ab348bad1bbf</t>
-  </si>
-  <si>
-    <t>all[key]code,data,msg
-code[=]int(200)
-data[key]map
-data.map[dict_list,key]['mediateResult', 'claimMoney', 'mediateTime', 'trialTime', 'legalFare', 'mediateClaim', 'docCount', 'mediateFare', 'resultMoney']</t>
   </si>
   <si>
     <t>case16</t>
@@ -240,10 +207,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -254,6 +221,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -262,7 +244,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,12 +252,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -284,16 +273,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -301,45 +290,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,13 +311,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -375,21 +319,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -397,6 +326,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -407,13 +374,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,169 +536,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,17 +568,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,17 +603,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,9 +633,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,31 +665,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,134 +683,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1178,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1225,273 +1192,340 @@
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" ht="36.75" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" ht="36.75" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" ht="36.75" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" ht="36.75" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" ht="36.75" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" ht="36.75" customHeight="1" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="1" ht="110" customHeight="1" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" ht="171" customHeight="1" spans="1:6">
       <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" customFormat="1" ht="42.75" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" ht="71.25" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InterfaceAuto/server/Risk_assess/Risk_assess_backstage.xlsx
+++ b/InterfaceAuto/server/Risk_assess/Risk_assess_backstage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20760" windowHeight="11610"/>
+    <workbookView windowWidth="27165" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="forward" sheetId="7" r:id="rId1"/>
@@ -56,7 +56,7 @@
   </si>
   <si>
     <t>id=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
-pId=19</t>
+province=19</t>
   </si>
   <si>
     <t>case3</t>
@@ -77,7 +77,7 @@
   </si>
   <si>
     <t>id=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
-pId=14</t>
+province=14</t>
   </si>
   <si>
     <t>case5</t>
@@ -98,7 +98,7 @@
   </si>
   <si>
     <t>id=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
-pId=9</t>
+province=9</t>
   </si>
   <si>
     <t>case7</t>
@@ -119,7 +119,7 @@
   </si>
   <si>
     <t>id=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
-pId=3</t>
+province=3</t>
   </si>
   <si>
     <t>case9</t>
@@ -140,7 +140,7 @@
   </si>
   <si>
     <t>id=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
-pId=1</t>
+province=1</t>
   </si>
   <si>
     <t>case11</t>
@@ -161,7 +161,7 @@
   </si>
   <si>
     <t>id=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
-pId=50</t>
+province=50</t>
   </si>
   <si>
     <t>case13</t>
@@ -207,8 +207,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -223,6 +223,58 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -230,69 +282,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,61 +313,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,31 +374,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,151 +554,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,11 +568,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,6 +613,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -607,30 +655,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -641,40 +665,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -683,134 +683,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1147,8 +1147,8 @@
   <sheetPr/>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
